--- a/SQ_calc.xlsx
+++ b/SQ_calc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phil3/Documents/calcs/SQ_multijunc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25AFC7E-2EC5-5943-8D9A-2B7AE8F867A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6C87C4-85BB-5D4B-85F1-886B50B46BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{D5AD7777-409B-8F4F-A1E7-45FB5EA0000C}"/>
+    <workbookView xWindow="9100" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{D5AD7777-409B-8F4F-A1E7-45FB5EA0000C}"/>
   </bookViews>
   <sheets>
     <sheet name="const" sheetId="2" r:id="rId1"/>
@@ -246,15 +246,6 @@
     <t>n(E1,E2,T) (1/m^3)</t>
   </si>
   <si>
-    <t>u(E1,E2,T) (J/m^3 K^4)</t>
-  </si>
-  <si>
-    <t>L(E1,E2,T) (W/m^2 K^4)</t>
-  </si>
-  <si>
-    <t>u(0,E2,T) (J/m^3</t>
-  </si>
-  <si>
     <t>L(0,E2,T) (W/m^2)</t>
   </si>
   <si>
@@ -289,6 +280,15 @@
   </si>
   <si>
     <t>sigma (W/m^2 K^4)</t>
+  </si>
+  <si>
+    <t>u(0,E2,T) (J/m^3)</t>
+  </si>
+  <si>
+    <t>u(E1,E2,T) (J/m^3)</t>
+  </si>
+  <si>
+    <t>L(E1,E2,T) (W/m^2)</t>
   </si>
 </sst>
 </file>
@@ -400,11 +400,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="11" fontId="3" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -744,259 +745,259 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15" style="7" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="7"/>
-    <col min="5" max="5" width="13.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11" style="7"/>
-    <col min="8" max="8" width="12.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="11" style="7"/>
+    <col min="1" max="1" width="30.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="8"/>
+    <col min="5" max="5" width="13.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11" style="8"/>
+    <col min="8" max="8" width="12.33203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>6.6260687599999996E-34</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <f>C3/C5</f>
         <v>4.13566727333434E-15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>299792458</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>1.6021764620000001E-19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>1.3806490000000001E-23</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="9">
         <f>C6/C5</f>
         <v>8.6173341872500933E-5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="11">
         <v>9.1093818800000006E-31</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="9">
         <f>C7*C4^2</f>
         <v>8.1871041397413285E-14</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="9">
         <f>F7/C5</f>
         <v>510998.90267526149</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>6.0221415000000003E+23</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>8.8541878170000005E-12</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="10"/>
-      <c r="F10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="C10" s="11"/>
+      <c r="F10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <f>300*const!C6/const!C5</f>
         <v>2.5852002561750281E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="13">
         <f>const!F3*const!C4*1000000000</f>
         <v>1239.8418573430597</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="14">
         <f>C16/1000</f>
         <v>1.2398418573430596</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <f>const!C6*const!C8</f>
         <v>8.3144636398335017</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="15">
         <f>const!C8*const!C5</f>
         <v>96485.333621333746</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="9">
         <f>2*PI()^5/15*C6^4/C3^3/C4^2</f>
         <v>5.6703779877357324E-8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="9">
         <f>C3/2/PI()</f>
         <v>1.0545715964207855E-34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="9">
         <f>4*PI()*C9*C20^2/C7/C5^2</f>
         <v>5.2917720857030988E-11</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="9">
         <f>C20^2/2/C7/C21^2</f>
         <v>2.1798719016382761E-18</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="9">
         <f>C22/C5</f>
         <v>13.60569171586217</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="16">
         <f>2*(2*PI()*I7*C15/(C16/10000000)^2)^1.5</f>
         <v>2.5094130518145069E+19</v>
       </c>
@@ -1012,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFA53AD-E0FB-6749-8553-893332CDA769}">
   <dimension ref="A2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1025,7 +1026,7 @@
     <col min="5" max="5" width="16.1640625" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" customWidth="1"/>
     <col min="11" max="11" width="16.5" customWidth="1"/>
@@ -1042,11 +1043,11 @@
       <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <f>const!F6</f>
         <v>8.6173341872500933E-5</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -1080,7 +1081,7 @@
         <v>47</v>
       </c>
       <c r="C7">
-        <v>6000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1089,7 +1090,7 @@
       </c>
       <c r="C8" s="1">
         <f>const!F6*C7</f>
-        <v>0.51704005123500563</v>
+        <v>2.5852002561750281E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1116,14 +1117,14 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1">
         <f>C5/4*B11</f>
         <v>632441697340681.75</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1147,7 +1148,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1">
         <f>C5/4*B13</f>
@@ -1173,7 +1174,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <f>$B$33</f>
@@ -1182,7 +1183,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <f>C33</f>
@@ -1195,7 +1196,7 @@
       </c>
       <c r="B18" s="1">
         <f>B15/$C$8</f>
-        <v>1.9340861459598588</v>
+        <v>38.681722919197178</v>
       </c>
       <c r="E18" s="1"/>
     </row>
@@ -1205,7 +1206,7 @@
       </c>
       <c r="B19" s="1">
         <f>B16/$C$8</f>
-        <v>3.8681722919197177</v>
+        <v>77.363445838394355</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1216,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
         <v>55</v>
@@ -1246,21 +1247,21 @@
         <f>6/$A22^4</f>
         <v>6</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <f>-(B$18^2/$A22+2*B$18/$A22^2+2/$A22^3)*EXP(-$A22*$B$18)</f>
-        <v>-1.3890215812390456</v>
+        <v>-2.5014852386413584E-14</v>
       </c>
       <c r="E22" s="1">
         <f>-(B$18^3/$A22+3*B$18^2/$A22^2+6*B$18/$A22^3+6/$A22^4)*EXP(-$A22*$B$18)</f>
-        <v>-5.2129029454725275</v>
+        <v>-9.9392416761230137E-13</v>
       </c>
       <c r="F22" s="1">
         <f>-(B$19^2/$A22+2*B$19/$A22^2+2/$A22^3)*EXP(-$A22*$B$19)+2/$A22^3</f>
-        <v>1.4838745520832026</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
         <f>-(B$19^3/$A22+3*B$19^2/$A22^2+6*B$19/$A22^3+6/$A22^4)*EXP(-$A22*$B$19)+6/$A22^4</f>
-        <v>3.2421635503493631</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1275,21 +1276,21 @@
         <f t="shared" ref="C23:C31" si="1">6/$A23^4</f>
         <v>0.375</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <f t="shared" ref="D23:D31" si="2">-(B$18^2/$A23+2*B$18/$A23^2+2/$A23^3)*EXP(-$A23*$B$18)</f>
-        <v>-6.4515680989599672E-2</v>
+        <v>-1.935040907452962E-31</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" ref="E23:E31" si="3">-(B$18^3/$A23+3*B$18^2/$A23^2+6*B$18/$A23^3+6/$A23^4)*EXP(-$A23*$B$18)</f>
-        <v>-0.17236477810316481</v>
+        <v>-7.5843240869466766E-30</v>
       </c>
       <c r="F23" s="1">
         <f>-(B$19^2/$A23+2*B$19/$A23^2+2/$A23^3)*EXP(-$A23*$B$19)+2/$A23^3</f>
-        <v>0.24577943132722538</v>
+        <v>0.25</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ref="G23:G31" si="4">-(B$19^3/$A23+3*B$19^2/$A23^2+6*B$19/$A23^3+6/$A23^4)*EXP(-$A23*$B$19)+6/$A23^4</f>
-        <v>0.35603238893286204</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -1304,21 +1305,21 @@
         <f t="shared" si="1"/>
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <f t="shared" si="2"/>
-        <v>-5.2885867141132846E-3</v>
+        <v>-2.0304788837248868E-48</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="3"/>
-        <v>-1.2573382224053905E-2</v>
+        <v>-7.9230911042005289E-47</v>
       </c>
       <c r="F24" s="1">
         <f>-(B$19^2/$A24+2*B$19/$A24^2+2/$A24^3)*EXP(-$A24*$B$19)+2/$A24^3</f>
-        <v>7.4020043943968453E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="4"/>
-        <v>7.384400103751039E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1333,21 +1334,21 @@
         <f t="shared" si="1"/>
         <v>2.34375E-2</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <f t="shared" si="2"/>
-        <v>-5.2757108409682771E-4</v>
+        <v>-2.4072982883457235E-65</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="3"/>
-        <v>-1.1854756916961238E-3</v>
+        <v>-9.3728048489390045E-64</v>
       </c>
       <c r="F25" s="1">
         <f>-(B$19^2/$A25+2*B$19/$A25^2+2/$A25^3)*EXP(-$A25*$B$19)+2/$A25^3</f>
-        <v>3.1249188584939826E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="4"/>
-        <v>2.3434132424654863E-2</v>
+        <v>2.34375E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1362,21 +1363,21 @@
         <f t="shared" si="1"/>
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <f t="shared" si="2"/>
-        <v>-5.8001186908732099E-5</v>
+        <v>-3.0495686677935607E-82</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="3"/>
-        <v>-1.2613686907528933E-4</v>
+        <v>-1.1857879062703406E-80</v>
       </c>
       <c r="F26" s="1">
         <f>-(B$19^2/$A26+2*B$19/$A26^2+2/$A26^3)*EXP(-$A26*$B$19)+2/$A26^3</f>
-        <v>1.5999986779507022E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="4"/>
-        <v>9.5999459446542874E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1391,21 +1392,21 @@
         <f t="shared" si="1"/>
         <v>4.6296296296296294E-3</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <f t="shared" si="2"/>
-        <v>-6.753766263202145E-6</v>
+        <v>-4.0276330672944852E-99</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="3"/>
-        <v>-1.4379564785230405E-5</v>
+        <v>-1.5647284287091734E-97</v>
       </c>
       <c r="F27" s="1">
         <f>-(B$19^2/$A27+2*B$19/$A27^2+2/$A27^3)*EXP(-$A27*$B$19)+2/$A27^3</f>
-        <v>9.2592590329583693E-3</v>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="4"/>
-        <v>4.6296287133028753E-3</v>
+        <v>4.6296296296296294E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1420,21 +1421,21 @@
         <f t="shared" si="1"/>
         <v>2.4989587671803417E-3</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <f t="shared" si="2"/>
-        <v>-8.166960622726822E-7</v>
+        <v>-5.4740615165391508E-116</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="3"/>
-        <v>-1.7133043812376907E-6</v>
+        <v>-2.125339155979914E-114</v>
       </c>
       <c r="F28" s="1">
         <f>-(B$19^2/$A28+2*B$19/$A28^2+2/$A28^3)*EXP(-$A28*$B$19)+2/$A28^3</f>
-        <v>5.8309037860835647E-3</v>
+        <v>5.8309037900874635E-3</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="4"/>
-        <v>2.4989587510784463E-3</v>
+        <v>2.4989587671803417E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1449,21 +1450,21 @@
         <f t="shared" si="1"/>
         <v>1.46484375E-3</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <f t="shared" si="2"/>
-        <v>-1.0142688252157632E-7</v>
+        <v>-7.597276697435947E-133</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="3"/>
-        <v>-2.1047345907095445E-7</v>
+        <v>-2.9483154926103015E-131</v>
       </c>
       <c r="F29" s="1">
         <f>-(B$19^2/$A29+2*B$19/$A29^2+2/$A29^3)*EXP(-$A29*$B$19)+2/$A29^3</f>
-        <v>3.9062499999274621E-3</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="4"/>
-        <v>1.4648437497097591E-3</v>
+        <v>1.46484375E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1478,21 +1479,21 @@
         <f t="shared" si="1"/>
         <v>9.1449474165523545E-4</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <f t="shared" si="2"/>
-        <v>-1.2848172677136782E-8</v>
+        <v>-1.0713583067530611E-149</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="3"/>
-        <v>-2.6440107304101201E-8</v>
+        <v>-4.1561708840203375E-148</v>
       </c>
       <c r="F30" s="1">
         <f>-(B$19^2/$A30+2*B$19/$A30^2+2/$A30^3)*EXP(-$A30*$B$19)+2/$A30^3</f>
-        <v>2.7434842249643683E-3</v>
+        <v>2.7434842249657062E-3</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="4"/>
-        <v>9.1449474164990367E-4</v>
+        <v>9.1449474165523545E-4</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1507,22 +1508,25 @@
         <f t="shared" si="1"/>
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <f t="shared" si="2"/>
-        <v>-1.6525616222934556E-9</v>
+        <v>-1.5299207774015889E-166</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="3"/>
-        <v>-3.3784591069403506E-9</v>
+        <v>-5.9333754697309491E-165</v>
       </c>
       <c r="F31" s="1">
         <f>-(B$19^2/$A31+2*B$19/$A31^2+2/$A31^3)*EXP(-$A31*$B$19)+2/$A31^3</f>
-        <v>1.9999999999999749E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="4"/>
-        <v>5.9999999999990053E-4</v>
-      </c>
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33">
@@ -1533,39 +1537,39 @@
         <f>SUM(C22:C31)</f>
         <v>6.4922195009625403</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="4">
         <f>SUM(D22:D31)</f>
-        <v>-1.4594191076037064</v>
+        <v>-2.5014852386413584E-14</v>
       </c>
       <c r="E33" s="1">
         <f>SUM(E22:E31)</f>
-        <v>-5.3991690515217092</v>
+        <v>-9.9392416761230137E-13</v>
       </c>
       <c r="F33">
         <f>SUM(F22:F31)</f>
-        <v>1.8746630997627769</v>
+        <v>2.3950639713483861</v>
       </c>
       <c r="G33">
         <f>SUM(G22:G31)</f>
-        <v>3.7151819446447849</v>
+        <v>6.4922195009625403</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D34" s="1">
+      <c r="D34" s="4">
         <f>$E$16+D33</f>
-        <v>0.9356448637446797</v>
+        <v>2.3950639713483612</v>
       </c>
       <c r="E34" s="1">
         <f>$E$17+E33</f>
-        <v>1.0930504494408311</v>
+        <v>6.4922195009615464</v>
       </c>
       <c r="F34" s="1">
         <f>$E$16+F33</f>
-        <v>4.2697270711111628</v>
+        <v>4.7901279426967722</v>
       </c>
       <c r="G34" s="1">
         <f>$E$17+G33</f>
-        <v>10.207401445607324</v>
+        <v>12.984439001925081</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
@@ -1606,9 +1610,9 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="17">
+        <v>74</v>
+      </c>
+      <c r="C39" s="18">
         <f>$C$5/4*C37</f>
         <v>5.6688762043200251E-8</v>
       </c>
@@ -1616,93 +1620,93 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="1">
         <f>C36*$C$7^3</f>
-        <v>4.3654664298230323E+18</v>
+        <v>545683303727879</v>
       </c>
       <c r="D40" t="s">
         <v>54</v>
       </c>
       <c r="E40" s="1">
         <f>B11*D34*$C$7^3</f>
-        <v>1.7053933806261617E+18</v>
+        <v>545683303727873.38</v>
       </c>
       <c r="F40" t="s">
         <v>59</v>
       </c>
       <c r="G40" s="1">
         <f>B11*F33*C7^3</f>
-        <v>3.416935383414849E+18</v>
+        <v>545683303727879</v>
       </c>
       <c r="H40" t="s">
         <v>62</v>
       </c>
       <c r="I40" s="1">
         <f>G40-E40</f>
-        <v>1.7115420027886874E+18</v>
+        <v>5.625</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C41" s="1">
         <f>C37*$C$7^4</f>
-        <v>0.9802599584808438</v>
+        <v>6.1266247405052741E-6</v>
       </c>
       <c r="D41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E41" s="1">
         <f>$B13*E34*$C$7^4</f>
-        <v>0.16503964291833931</v>
+        <v>6.1266247405043364E-6</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G41" s="1">
         <f>$B13*G33*C7^4</f>
-        <v>0.56095517076499568</v>
+        <v>6.1266247405052741E-6</v>
       </c>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="I41" s="1">
         <f>G41-E41</f>
-        <v>0.3959155278466564</v>
+        <v>9.3766547261051048E-19</v>
       </c>
       <c r="K41" s="1"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C43" s="1">
         <f>C39*$C$7^4</f>
-        <v>73468635.607987523</v>
+        <v>459.17897254992204</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E43" s="1">
         <f>$C$5/4 * E41</f>
-        <v>12369410.054482808</v>
+        <v>459.17897254985178</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G43" s="1">
         <f>$C$5/4 * G41</f>
-        <v>42042532.367861949</v>
+        <v>459.17897254992209</v>
       </c>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I43" s="1">
         <f>G43-E43</f>
-        <v>29673122.313379139</v>
+        <v>7.0315309130819514E-11</v>
       </c>
     </row>
   </sheetData>
